--- a/forms/accounting/COST_OF_SALES.xlsx
+++ b/forms/accounting/COST_OF_SALES.xlsx
@@ -62,7 +62,7 @@
     <t>2020</t>
   </si>
   <si>
-    <t>09</t>
+    <t>08</t>
   </si>
   <si>
     <t>COST OF SALES</t>
@@ -751,13 +751,13 @@
         <v>33</v>
       </c>
       <c r="E2" s="2">
-        <v>9634340.2858</v>
+        <v>1390480.1794</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>9634340.2858</v>
+        <v>1390480.1794</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -805,13 +805,13 @@
         <v>37</v>
       </c>
       <c r="E3" s="2">
-        <v>-9634340.2858</v>
+        <v>-1390480.1794</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>-9634340.2858</v>
+        <v>-1390480.1794</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>34</v>
